--- a/Milestone3/ExcelSheets/Simulation_Throughputs.xlsx
+++ b/Milestone3/ExcelSheets/Simulation_Throughputs.xlsx
@@ -456,7 +456,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.756666666666667</v>
+        <v>5.72</v>
       </c>
       <c r="C2" t="n">
         <v>18000</v>
@@ -467,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.746666666666667</v>
+        <v>6.003333333333333</v>
       </c>
       <c r="C3" t="n">
         <v>18000</v>
@@ -478,7 +478,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.92</v>
+        <v>5.58</v>
       </c>
       <c r="C4" t="n">
         <v>18000</v>
@@ -489,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.53</v>
+        <v>5.856666666666666</v>
       </c>
       <c r="C5" t="n">
         <v>18000</v>
@@ -500,7 +500,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.766666666666667</v>
+        <v>5.616666666666666</v>
       </c>
       <c r="C6" t="n">
         <v>18000</v>
@@ -511,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5.666666666666667</v>
+        <v>5.776666666666666</v>
       </c>
       <c r="C7" t="n">
         <v>18000</v>
@@ -522,7 +522,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5.786666666666667</v>
+        <v>5.9</v>
       </c>
       <c r="C8" t="n">
         <v>18000</v>
@@ -533,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>5.613333333333333</v>
+        <v>5.553333333333334</v>
       </c>
       <c r="C9" t="n">
         <v>18000</v>
@@ -544,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>5.713333333333333</v>
+        <v>5.943333333333333</v>
       </c>
       <c r="C10" t="n">
         <v>18000</v>
@@ -555,7 +555,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>5.55</v>
+        <v>5.663333333333333</v>
       </c>
       <c r="C11" t="n">
         <v>18000</v>
@@ -568,10 +568,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.705</v>
+        <v>5.761333333333333</v>
       </c>
       <c r="C12" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="13">
@@ -581,36 +581,36 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1121135337256143</v>
+        <v>0.1512040563829776</v>
       </c>
       <c r="C13" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CI:+-0.08012</t>
+          <t>CI:+-0.10806</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.624875288178712</v>
+        <v>5.653271611957692</v>
       </c>
       <c r="C14" t="n">
-        <v>5.785124711821288</v>
+        <v>5.869395054708974</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PI:+-0.29069</t>
+          <t>PI:+-0.39205</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.414308719777193</v>
+        <v>5.36928699187717</v>
       </c>
       <c r="C15" t="n">
-        <v>5.995691280222808</v>
+        <v>6.153379674789496</v>
       </c>
     </row>
   </sheetData>
